--- a/lab02/homework/vinamils.xlsx
+++ b/lab02/homework/vinamils.xlsx
@@ -32,12 +32,10 @@
     <t>Quý 4-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">
-                1. Doanh thu bán hàng và cung cấp dịch vụ
-            </t>
-  </si>
-  <si>
-    <t>12,074,425,433,110</t>
+    <t xml:space="preserve">;;                1. Doanh thu bán hàng và cung cấp dịch vụ            </t>
+  </si>
+  <si>
+    <t>12,131,963,698,383</t>
   </si>
   <si>
     <t>13,386,878,196,373</t>
@@ -46,15 +44,13 @@
     <t>13,308,557,627,263</t>
   </si>
   <si>
-    <t>11,838,267,527,921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                2. Các khoản giảm trừ doanh thu
-            </t>
-  </si>
-  <si>
-    <t>25,056,740,672</t>
+    <t>12,365,038,508,333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                2. Các khoản giảm trừ doanh thu            </t>
+  </si>
+  <si>
+    <t>11,461,677,471</t>
   </si>
   <si>
     <t>38,616,981,182</t>
@@ -63,15 +59,13 @@
     <t>15,479,806,923</t>
   </si>
   <si>
-    <t>30,656,778,415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                3. Doanh thu thuần về bán hàng và cung cấp dịch vụ
-            </t>
-  </si>
-  <si>
-    <t>12,049,368,692,438</t>
+    <t>14,670,351,193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                3. Doanh thu thuần về bán hàng và cung cấp dịch vụ            </t>
+  </si>
+  <si>
+    <t>12,120,502,020,912</t>
   </si>
   <si>
     <t>13,348,261,215,191</t>
@@ -80,15 +74,13 @@
     <t>13,293,077,820,340</t>
   </si>
   <si>
-    <t>11,807,610,749,506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                4. Giá vốn hàng bán
-            </t>
-  </si>
-  <si>
-    <t>6,230,237,376,368</t>
+    <t>12,350,368,157,140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                4. Giá vốn hàng bán            </t>
+  </si>
+  <si>
+    <t>6,633,808,703,800</t>
   </si>
   <si>
     <t>6,807,419,327,845</t>
@@ -97,15 +89,13 @@
     <t>7,022,778,495,998</t>
   </si>
   <si>
-    <t>6,327,315,699,575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ
-            </t>
-  </si>
-  <si>
-    <t>5,819,131,316,070</t>
+    <t>6,746,495,866,265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ            </t>
+  </si>
+  <si>
+    <t>5,486,693,317,112</t>
   </si>
   <si>
     <t>6,540,841,887,346</t>
@@ -114,15 +104,13 @@
     <t>6,270,299,324,342</t>
   </si>
   <si>
-    <t>5,480,295,049,931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                6. Doanh thu hoạt động tài chính
-            </t>
-  </si>
-  <si>
-    <t>199,756,552,892</t>
+    <t>5,603,872,290,875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                6. Doanh thu hoạt động tài chính            </t>
+  </si>
+  <si>
+    <t>190,257,216,242</t>
   </si>
   <si>
     <t>204,884,142,516</t>
@@ -131,15 +119,13 @@
     <t>213,488,861,058</t>
   </si>
   <si>
-    <t>194,133,215,944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                7. Chi phí tài chính
-            </t>
-  </si>
-  <si>
-    <t>27,661,528,509</t>
+    <t>198,187,222,069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                7. Chi phí tài chính            </t>
+  </si>
+  <si>
+    <t>19,314,174,913</t>
   </si>
   <si>
     <t>29,056,344,259</t>
@@ -148,15 +134,13 @@
     <t>17,833,795,652</t>
   </si>
   <si>
-    <t>33,702,023,732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                  - Trong đó: Chi phí lãi vay
-            </t>
-  </si>
-  <si>
-    <t>13,393,474,209</t>
+    <t>12,485,879,856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;;;                  - Trong đó: Chi phí lãi vay            </t>
+  </si>
+  <si>
+    <t>8,555,583,980</t>
   </si>
   <si>
     <t>4,023,632,084</t>
@@ -165,15 +149,13 @@
     <t>7,006,245,652</t>
   </si>
   <si>
-    <t>19,574,144,919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                8. Phần lãi lỗ hoặc lỗ trong công ty liên doanh, liên kết
-            </t>
-  </si>
-  <si>
-    <t>16,609,907,192</t>
+    <t>5,015,216,618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                8. Phần lãi lỗ hoặc lỗ trong công ty liên doanh, liên kết            </t>
+  </si>
+  <si>
+    <t>14,061,854,211</t>
   </si>
   <si>
     <t>18,980,009,176</t>
@@ -182,15 +164,13 @@
     <t>8,393,748,492</t>
   </si>
   <si>
-    <t>-6,270,069,878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                9. Chi phí bán hàng
-            </t>
-  </si>
-  <si>
-    <t>2,303,389,750,323</t>
+    <t>23,150,316,782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                9. Chi phí bán hàng            </t>
+  </si>
+  <si>
+    <t>2,318,536,685,442</t>
   </si>
   <si>
     <t>3,052,625,245,294</t>
@@ -199,15 +179,13 @@
     <t>2,980,515,590,409</t>
   </si>
   <si>
-    <t>3,192,490,113,496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                10. Chi phí quản lý doanh nghiệp
-            </t>
-  </si>
-  <si>
-    <t>234,141,221,196</t>
+    <t>3,200,002,985,773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                10. Chi phí quản lý doanh nghiệp            </t>
+  </si>
+  <si>
+    <t>240,213,522,091</t>
   </si>
   <si>
     <t>239,797,745,989</t>
@@ -216,15 +194,13 @@
     <t>265,435,950,848</t>
   </si>
   <si>
-    <t>296,402,762,521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                11. Lợi nhuận thuần từ hoạt động kinh doanh
-            </t>
-  </si>
-  <si>
-    <t>3,470,305,276,126</t>
+    <t>528,231,353,057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                11. Lợi nhuận thuần từ hoạt động kinh doanh            </t>
+  </si>
+  <si>
+    <t>3,112,948,005,119</t>
   </si>
   <si>
     <t>3,443,226,703,496</t>
@@ -233,15 +209,13 @@
     <t>3,228,396,596,983</t>
   </si>
   <si>
-    <t>2,145,563,296,248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                12. Thu nhập khác
-            </t>
-  </si>
-  <si>
-    <t>30,423,547,544</t>
+    <t>2,084,489,611,040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                12. Thu nhập khác            </t>
+  </si>
+  <si>
+    <t>146,116,534,447</t>
   </si>
   <si>
     <t>56,563,334,106</t>
@@ -250,15 +224,13 @@
     <t>65,331,706,324</t>
   </si>
   <si>
-    <t>94,658,510,605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                13. Chi phí khác
-            </t>
-  </si>
-  <si>
-    <t>24,641,159,915</t>
+    <t>60,761,998,456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                13. Chi phí khác            </t>
+  </si>
+  <si>
+    <t>82,601,647,493</t>
   </si>
   <si>
     <t>55,767,691,611</t>
@@ -267,15 +239,13 @@
     <t>70,713,968,872</t>
   </si>
   <si>
-    <t>36,051,875,486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                14. Lợi nhuận khác
-            </t>
-  </si>
-  <si>
-    <t>5,782,387,629</t>
+    <t>59,430,569,541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                14. Lợi nhuận khác            </t>
+  </si>
+  <si>
+    <t>63,514,886,954</t>
   </si>
   <si>
     <t>795,642,495</t>
@@ -284,15 +254,13 @@
     <t>-5,382,262,548</t>
   </si>
   <si>
-    <t>58,606,635,119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                15. Tổng lợi nhuận kế toán trước thuế
-            </t>
-  </si>
-  <si>
-    <t>3,476,087,663,755</t>
+    <t>1,331,428,915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                15. Tổng lợi nhuận kế toán trước thuế            </t>
+  </si>
+  <si>
+    <t>3,176,462,892,073</t>
   </si>
   <si>
     <t>3,444,022,345,991</t>
@@ -301,15 +269,13 @@
     <t>3,223,014,334,435</t>
   </si>
   <si>
-    <t>2,204,169,931,367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                16. Chi phí thuế TNDN hiện hành
-            </t>
-  </si>
-  <si>
-    <t>528,294,248,598</t>
+    <t>2,085,821,039,955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                16. Chi phí thuế TNDN hiện hành            </t>
+  </si>
+  <si>
+    <t>504,757,180,169</t>
   </si>
   <si>
     <t>558,115,578,219</t>
@@ -318,15 +284,13 @@
     <t>528,097,208,664</t>
   </si>
   <si>
-    <t>377,978,824,943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                17. Chi phí thuế TNDN hoãn lại
-            </t>
-  </si>
-  <si>
-    <t>12,787,981,199</t>
+    <t>352,559,669,748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                17. Chi phí thuế TNDN hoãn lại            </t>
+  </si>
+  <si>
+    <t>-11,339,489,858</t>
   </si>
   <si>
     <t>-30,881,221,922</t>
@@ -335,15 +299,13 @@
     <t>-2,150,517,050</t>
   </si>
   <si>
-    <t>-2,096,140,601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                18. Lợi nhuận sau thuế thu nhập doanh nghiệp
-            </t>
-  </si>
-  <si>
-    <t>2,935,005,433,958</t>
+    <t>3,947,883,514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                18. Lợi nhuận sau thuế thu nhập doanh nghiệp            </t>
+  </si>
+  <si>
+    <t>2,683,045,201,762</t>
   </si>
   <si>
     <t>2,916,787,989,694</t>
@@ -352,15 +314,13 @@
     <t>2,697,067,642,821</t>
   </si>
   <si>
-    <t>1,828,287,247,025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                18.1 Lợi ích của cổ đông thiểu số
-            </t>
-  </si>
-  <si>
-    <t>-62,830,946</t>
+    <t>1,729,313,486,693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                18.1 Lợi ích của cổ đông thiểu số            </t>
+  </si>
+  <si>
+    <t>-18,268,537,046</t>
   </si>
   <si>
     <t>-5,292,414,236</t>
@@ -369,15 +329,13 @@
     <t>3,163,882,771</t>
   </si>
   <si>
-    <t>-676,593,137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                18.2  Lợi nhuận sau thuế của công ty mẹ
-            </t>
-  </si>
-  <si>
-    <t>2,935,068,264,904</t>
+    <t>-15,299,233,269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                18.2  Lợi nhuận sau thuế của công ty mẹ            </t>
+  </si>
+  <si>
+    <t>2,701,313,738,808</t>
   </si>
   <si>
     <t>2,922,080,403,930</t>
@@ -386,15 +344,13 @@
     <t>2,693,903,760,050</t>
   </si>
   <si>
-    <t>1,828,963,840,162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                19. Lãi cơ bản trên cổ phiếu
-            </t>
-  </si>
-  <si>
-    <t>1,799</t>
+    <t>1,744,612,719,962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                19. Lãi cơ bản trên cổ phiếu            </t>
+  </si>
+  <si>
+    <t>1,677</t>
   </si>
   <si>
     <t>1,818</t>
@@ -403,17 +359,13 @@
     <t>1,699</t>
   </si>
   <si>
-    <t>1,136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                20. Lãi suy giảm trên cổ phiếu
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                21. Cổ tức
-            </t>
+    <t>1,070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                20. Lãi suy giảm trên cổ phiếu            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">;;                21. Cổ tức            </t>
   </si>
 </sst>
 </file>
